--- a/natmiOut/OldD7/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H2">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I2">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J2">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9218602339762</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N2">
-        <v>11.9218602339762</v>
+        <v>51.97477</v>
       </c>
       <c r="O2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q2">
-        <v>184.5908927959466</v>
+        <v>279.3589198492011</v>
       </c>
       <c r="R2">
-        <v>184.5908927959466</v>
+        <v>2514.23027864281</v>
       </c>
       <c r="S2">
-        <v>0.06162670338161579</v>
+        <v>0.05353485440695051</v>
       </c>
       <c r="T2">
-        <v>0.06162670338161579</v>
+        <v>0.05353485440695053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H3">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I3">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J3">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.53895892256346</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N3">
-        <v>6.53895892256346</v>
+        <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q3">
-        <v>101.2452957661825</v>
+        <v>106.2694042302519</v>
       </c>
       <c r="R3">
-        <v>101.2452957661825</v>
+        <v>956.4246380722669</v>
       </c>
       <c r="S3">
-        <v>0.03380130902700472</v>
+        <v>0.02036490220699204</v>
       </c>
       <c r="T3">
-        <v>0.03380130902700472</v>
+        <v>0.02036490220699204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H4">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I4">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J4">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>53.169131330974</v>
+        <v>0.111195</v>
       </c>
       <c r="N4">
-        <v>53.169131330974</v>
+        <v>0.333585</v>
       </c>
       <c r="O4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q4">
-        <v>823.2387587969623</v>
+        <v>1.792984274445</v>
       </c>
       <c r="R4">
-        <v>823.2387587969623</v>
+        <v>16.136858470005</v>
       </c>
       <c r="S4">
-        <v>0.2748428702639872</v>
+        <v>0.000343597949684868</v>
       </c>
       <c r="T4">
-        <v>0.2748428702639872</v>
+        <v>0.0003435979496848681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.6238428604356</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H5">
-        <v>14.6238428604356</v>
+        <v>48.374053</v>
       </c>
       <c r="I5">
-        <v>0.3497154576673431</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J5">
-        <v>0.3497154576673431</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9218602339762</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N5">
-        <v>11.9218602339762</v>
+        <v>214.856537</v>
       </c>
       <c r="O5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q5">
-        <v>174.343410665744</v>
+        <v>1154.831278692718</v>
       </c>
       <c r="R5">
-        <v>174.343410665744</v>
+        <v>10393.48150823446</v>
       </c>
       <c r="S5">
-        <v>0.0582055240802918</v>
+        <v>0.2213057109570004</v>
       </c>
       <c r="T5">
-        <v>0.0582055240802918</v>
+        <v>0.2213057109570004</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H6">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I6">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J6">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.53895892256346</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N6">
-        <v>6.53895892256346</v>
+        <v>51.97477</v>
       </c>
       <c r="O6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q6">
-        <v>95.62470775441132</v>
+        <v>254.4987925358333</v>
       </c>
       <c r="R6">
-        <v>95.62470775441132</v>
+        <v>2290.4891328225</v>
       </c>
       <c r="S6">
-        <v>0.03192484424055077</v>
+        <v>0.04877079211397698</v>
       </c>
       <c r="T6">
-        <v>0.03192484424055077</v>
+        <v>0.04877079211397698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H7">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I7">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J7">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.169131330974</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N7">
-        <v>53.169131330974</v>
+        <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q7">
-        <v>777.5370216100268</v>
+        <v>96.81249868341666</v>
       </c>
       <c r="R7">
-        <v>777.5370216100268</v>
+        <v>871.31248815075</v>
       </c>
       <c r="S7">
-        <v>0.2595850893465005</v>
+        <v>0.01855263123363849</v>
       </c>
       <c r="T7">
-        <v>0.2595850893465005</v>
+        <v>0.01855263123363849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.80796346945351</v>
+        <v>14.68975</v>
       </c>
       <c r="H8">
-        <v>1.80796346945351</v>
+        <v>44.06925</v>
       </c>
       <c r="I8">
-        <v>0.04323574714252217</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J8">
-        <v>0.04323574714252217</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>11.9218602339762</v>
+        <v>0.111195</v>
       </c>
       <c r="N8">
-        <v>11.9218602339762</v>
+        <v>0.333585</v>
       </c>
       <c r="O8">
-        <v>0.1664368068501512</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P8">
-        <v>0.1664368068501512</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q8">
-        <v>21.55428779095945</v>
+        <v>1.63342675125</v>
       </c>
       <c r="R8">
-        <v>21.55428779095945</v>
+        <v>14.70084076125</v>
       </c>
       <c r="S8">
-        <v>0.007196019696181938</v>
+        <v>0.0003130211963870357</v>
       </c>
       <c r="T8">
-        <v>0.007196019696181938</v>
+        <v>0.0003130211963870357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.80796346945351</v>
+        <v>14.68975</v>
       </c>
       <c r="H9">
-        <v>1.80796346945351</v>
+        <v>44.06925</v>
       </c>
       <c r="I9">
-        <v>0.04323574714252217</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J9">
-        <v>0.04323574714252217</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.53895892256346</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N9">
-        <v>6.53895892256346</v>
+        <v>214.856537</v>
       </c>
       <c r="O9">
-        <v>0.09128805587689628</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P9">
-        <v>0.09128805587689628</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q9">
-        <v>11.82219886025182</v>
+        <v>1052.062938131917</v>
       </c>
       <c r="R9">
-        <v>11.82219886025182</v>
+        <v>9468.56644318725</v>
       </c>
       <c r="S9">
-        <v>0.003946907301025923</v>
+        <v>0.2016117339308284</v>
       </c>
       <c r="T9">
-        <v>0.003946907301025923</v>
+        <v>0.2016117339308284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H10">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I10">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J10">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.169131330974</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N10">
-        <v>53.169131330974</v>
+        <v>51.97477</v>
       </c>
       <c r="O10">
-        <v>0.7422751372729526</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P10">
-        <v>0.7422751372729526</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q10">
-        <v>96.12784714897707</v>
+        <v>34.09303518068222</v>
       </c>
       <c r="R10">
-        <v>96.12784714897707</v>
+        <v>306.83731662614</v>
       </c>
       <c r="S10">
-        <v>0.03209282014531431</v>
+        <v>0.006533407544939304</v>
       </c>
       <c r="T10">
-        <v>0.03209282014531431</v>
+        <v>0.006533407544939304</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.9012008464664</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H11">
-        <v>9.9012008464664</v>
+        <v>5.903582</v>
       </c>
       <c r="I11">
-        <v>0.236777912517527</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J11">
-        <v>0.236777912517527</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9218602339762</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N11">
-        <v>11.9218602339762</v>
+        <v>19.771439</v>
       </c>
       <c r="O11">
-        <v>0.1664368068501512</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P11">
-        <v>0.1664368068501512</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q11">
-        <v>118.0407326400993</v>
+        <v>12.96914571049978</v>
       </c>
       <c r="R11">
-        <v>118.0407326400993</v>
+        <v>116.722311394498</v>
       </c>
       <c r="S11">
-        <v>0.03940855969206163</v>
+        <v>0.002485337957953585</v>
       </c>
       <c r="T11">
-        <v>0.03940855969206163</v>
+        <v>0.002485337957953585</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.9012008464664</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H12">
-        <v>9.9012008464664</v>
+        <v>5.903582</v>
       </c>
       <c r="I12">
-        <v>0.236777912517527</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J12">
-        <v>0.236777912517527</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>6.53895892256346</v>
+        <v>0.111195</v>
       </c>
       <c r="N12">
-        <v>6.53895892256346</v>
+        <v>0.333585</v>
       </c>
       <c r="O12">
-        <v>0.09128805587689628</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P12">
-        <v>0.09128805587689628</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q12">
-        <v>64.74354561909435</v>
+        <v>0.21881626683</v>
       </c>
       <c r="R12">
-        <v>64.74354561909435</v>
+        <v>1.96934640147</v>
       </c>
       <c r="S12">
-        <v>0.02161499530831486</v>
+        <v>4.193278307683859E-05</v>
       </c>
       <c r="T12">
-        <v>0.02161499530831486</v>
+        <v>4.193278307683859E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.9012008464664</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H13">
-        <v>9.9012008464664</v>
+        <v>5.903582</v>
       </c>
       <c r="I13">
-        <v>0.236777912517527</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J13">
-        <v>0.236777912517527</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.169131330974</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N13">
-        <v>53.169131330974</v>
+        <v>214.856537</v>
       </c>
       <c r="O13">
-        <v>0.7422751372729526</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P13">
-        <v>0.7422751372729526</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q13">
-        <v>526.4382481401229</v>
+        <v>140.9359093795038</v>
       </c>
       <c r="R13">
-        <v>526.4382481401229</v>
+        <v>1268.423184415534</v>
       </c>
       <c r="S13">
-        <v>0.1757543575171505</v>
+        <v>0.02700820648009276</v>
       </c>
       <c r="T13">
-        <v>0.1757543575171505</v>
+        <v>0.02700820648009276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>21.77610566666667</v>
+      </c>
+      <c r="H14">
+        <v>65.328317</v>
+      </c>
+      <c r="I14">
+        <v>0.3991338712384788</v>
+      </c>
+      <c r="J14">
+        <v>0.3991338712384788</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.32492333333333</v>
+      </c>
+      <c r="N14">
+        <v>51.97477</v>
+      </c>
+      <c r="O14">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="P14">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="Q14">
+        <v>377.2693611735656</v>
+      </c>
+      <c r="R14">
+        <v>3395.42425056209</v>
+      </c>
+      <c r="S14">
+        <v>0.07229788951622704</v>
+      </c>
+      <c r="T14">
+        <v>0.07229788951622704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>21.77610566666667</v>
+      </c>
+      <c r="H15">
+        <v>65.328317</v>
+      </c>
+      <c r="I15">
+        <v>0.3991338712384788</v>
+      </c>
+      <c r="J15">
+        <v>0.3991338712384788</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.590479666666667</v>
+      </c>
+      <c r="N15">
+        <v>19.771439</v>
+      </c>
+      <c r="O15">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="P15">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="Q15">
+        <v>143.5149816153514</v>
+      </c>
+      <c r="R15">
+        <v>1291.634834538163</v>
+      </c>
+      <c r="S15">
+        <v>0.02750244613682412</v>
+      </c>
+      <c r="T15">
+        <v>0.02750244613682412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>21.77610566666667</v>
+      </c>
+      <c r="H16">
+        <v>65.328317</v>
+      </c>
+      <c r="I16">
+        <v>0.3991338712384788</v>
+      </c>
+      <c r="J16">
+        <v>0.3991338712384788</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.111195</v>
+      </c>
+      <c r="N16">
+        <v>0.333585</v>
+      </c>
+      <c r="O16">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="P16">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="Q16">
+        <v>2.421394069605</v>
+      </c>
+      <c r="R16">
+        <v>21.792546626445</v>
+      </c>
+      <c r="S16">
+        <v>0.0004640230533828355</v>
+      </c>
+      <c r="T16">
+        <v>0.0004640230533828355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>21.77610566666667</v>
+      </c>
+      <c r="H17">
+        <v>65.328317</v>
+      </c>
+      <c r="I17">
+        <v>0.3991338712384788</v>
+      </c>
+      <c r="J17">
+        <v>0.3991338712384788</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>71.61884566666667</v>
+      </c>
+      <c r="N17">
+        <v>214.856537</v>
+      </c>
+      <c r="O17">
+        <v>0.7487951638999665</v>
+      </c>
+      <c r="P17">
+        <v>0.7487951638999664</v>
+      </c>
+      <c r="Q17">
+        <v>1559.579550962025</v>
+      </c>
+      <c r="R17">
+        <v>14036.21595865823</v>
+      </c>
+      <c r="S17">
+        <v>0.2988695125320448</v>
+      </c>
+      <c r="T17">
+        <v>0.2988695125320448</v>
       </c>
     </row>
   </sheetData>
